--- a/normalización.xlsx
+++ b/normalización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debora.fuentes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A653F78F-DD9C-4964-B66C-656C11C28A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB1F90-E677-40DA-BEE5-94EDF000E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{4BC30E80-1F73-41B9-913B-F004F1F1F435}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{4BC30E80-1F73-41B9-913B-F004F1F1F435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
   <si>
     <t>Id_orden</t>
   </si>
@@ -226,12 +226,6 @@
     <t>dni</t>
   </si>
   <si>
-    <t>Vehiculos</t>
-  </si>
-  <si>
-    <t>Precios</t>
-  </si>
-  <si>
     <t>Colegio</t>
   </si>
   <si>
@@ -310,26 +304,71 @@
     <t>Préstamos</t>
   </si>
   <si>
-    <t>Id_Préstamo</t>
-  </si>
-  <si>
     <t>Libros</t>
   </si>
   <si>
-    <t>Libros_asignaturas</t>
-  </si>
-  <si>
-    <t>Id_libro_asignatura</t>
-  </si>
-  <si>
-    <t>profesor</t>
+    <t>1FN</t>
+  </si>
+  <si>
+    <t>2FN</t>
+  </si>
+  <si>
+    <t>Artículos/Orden</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>3FN</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Coches</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Póliza</t>
+  </si>
+  <si>
+    <t>modelo_potencia</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>Asigantura</t>
+  </si>
+  <si>
+    <t>curso_asignatura</t>
+  </si>
+  <si>
+    <t>asignatura</t>
+  </si>
+  <si>
+    <t>aula</t>
+  </si>
+  <si>
+    <t>libro_editorial</t>
+  </si>
+  <si>
+    <t>queda igual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +380,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,11 +412,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,18 +752,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C6BEAD-4792-4064-A7CD-333555FBB524}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2301</v>
       </c>
@@ -774,7 +831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2301</v>
       </c>
@@ -803,7 +860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2301</v>
       </c>
@@ -832,7 +889,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2302</v>
       </c>
@@ -861,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2303</v>
       </c>
@@ -890,7 +947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2303</v>
       </c>
@@ -919,16 +976,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
@@ -944,27 +1006,38 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -974,23 +1047,86 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>22</v>
+      <c r="O16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1001,30 +1137,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484CEDD-1F04-4157-A99B-ABB6F76E46E6}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -1297,9 +1434,14 @@
         <v>1800000</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -1321,7 +1463,7 @@
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1343,19 +1485,24 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
@@ -1364,7 +1511,7 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1395,44 +1542,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -1443,17 +1592,27 @@
       <c r="M19" t="s">
         <v>36</v>
       </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" t="s">
-        <v>22</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1465,69 +1624,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AEC814-6829-4926-BC30-09FDC7E96946}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
       <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1">
         <v>40430</v>
@@ -1535,25 +1703,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
         <v>40303</v>
@@ -1561,25 +1729,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1">
         <v>40303</v>
@@ -1587,25 +1755,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1">
         <v>40304</v>
@@ -1613,25 +1781,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1">
         <v>40304</v>
@@ -1639,173 +1807,149 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
       <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1">
         <v>40430</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" t="s">
-        <v>67</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
